--- a/docs/‏‏‏‏טבלת השוואה(comb3) עבור אלגוריתם 2.xlsx
+++ b/docs/‏‏‏‏טבלת השוואה(comb3) עבור אלגוריתם 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OOP\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -70,7 +70,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +80,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -96,10 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,7 +390,7 @@
   <dimension ref="B1:N416"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -429,6 +436,10 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="3">
+        <f>AVERAGE(H3:H56)</f>
+        <v>5.3817106722583487E-4</v>
+      </c>
       <c r="L2" t="s">
         <v>4</v>
       </c>
